--- a/data/data_gempa_300.xlsx
+++ b/data/data_gempa_300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Programming Project\R\sem5-text-mining\tugas-gempa\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Programming Project\R\sem5-text-mining\text-mining-earthquake\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D48F5F-7955-4ABE-BEEB-ADB9B6975BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64520A0D-25E7-4B94-8DA9-338D36D1A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0136A141-596E-45C1-9072-ED532A335779}"/>
+    <workbookView xWindow="1460" yWindow="3760" windowWidth="7500" windowHeight="6000" xr2:uid="{0136A141-596E-45C1-9072-ED532A335779}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -1413,10 +1413,13 @@
   <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
